--- a/Student Data/ThirdYearStudents.xlsx
+++ b/Student Data/ThirdYearStudents.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\Student Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77C2B1C-A891-45BC-8801-8C2071A5A023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3156CCE3-0883-479A-9120-E5EFADDA4E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csa" sheetId="1" r:id="rId1"/>
     <sheet name="csb" sheetId="2" r:id="rId2"/>
     <sheet name="eee" sheetId="3" r:id="rId3"/>
+    <sheet name="ece" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="217">
   <si>
     <t>rollnum</t>
   </si>
@@ -519,13 +520,172 @@
   </si>
   <si>
     <t>VISHNU M P</t>
+  </si>
+  <si>
+    <t>AAKASH MURALIDHARAN</t>
+  </si>
+  <si>
+    <t>ABHIJEET V</t>
+  </si>
+  <si>
+    <t>AISWARYA P K</t>
+  </si>
+  <si>
+    <t>AJU ANTONY</t>
+  </si>
+  <si>
+    <t>AKHILA K P</t>
+  </si>
+  <si>
+    <t>ALAN ALAPPATT</t>
+  </si>
+  <si>
+    <t>ALAN TOMY</t>
+  </si>
+  <si>
+    <t>ALEENA PAUL</t>
+  </si>
+  <si>
+    <t>ANDRIYA ANTO EMMATTY</t>
+  </si>
+  <si>
+    <t>ANEENA C BINU</t>
+  </si>
+  <si>
+    <t>ANUPAMA J</t>
+  </si>
+  <si>
+    <t>ASHWIN K P</t>
+  </si>
+  <si>
+    <t>ASWIN KRISHNA K S</t>
+  </si>
+  <si>
+    <t>ATHIRA FRANCIS</t>
+  </si>
+  <si>
+    <t>BHAVANA NARAYANAN</t>
+  </si>
+  <si>
+    <t>GAYATHRI R V</t>
+  </si>
+  <si>
+    <t>GOPIKA U</t>
+  </si>
+  <si>
+    <t>HENNA ROSE C S</t>
+  </si>
+  <si>
+    <t>JAYITHA HARIGOVIND</t>
+  </si>
+  <si>
+    <t>JIBIN SEBI</t>
+  </si>
+  <si>
+    <t>JINCY SUSAN JOHN</t>
+  </si>
+  <si>
+    <t>KAVYASREE A NAIR</t>
+  </si>
+  <si>
+    <t>KRISHNA K</t>
+  </si>
+  <si>
+    <t>M P ASWIN</t>
+  </si>
+  <si>
+    <t>MARIA VARGHESE</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RASEEL</t>
+  </si>
+  <si>
+    <t>NANDANA VINOD</t>
+  </si>
+  <si>
+    <t>NAVIN T W</t>
+  </si>
+  <si>
+    <t>NOOPURA MOHAN</t>
+  </si>
+  <si>
+    <t>PARVATHY T R</t>
+  </si>
+  <si>
+    <t>RESHMA HENDRY</t>
+  </si>
+  <si>
+    <t>RESHMA ROY</t>
+  </si>
+  <si>
+    <t>SACHIN MANOHARAN</t>
+  </si>
+  <si>
+    <t>SANIL JOSEPH</t>
+  </si>
+  <si>
+    <t>SHIYAS S</t>
+  </si>
+  <si>
+    <t>SOWMYA M</t>
+  </si>
+  <si>
+    <t>STEEV VARGHESE U KOLLANNUR</t>
+  </si>
+  <si>
+    <t>TINIT THOMAS</t>
+  </si>
+  <si>
+    <t>UNNIMAYA SAJAYAN</t>
+  </si>
+  <si>
+    <t>VISAKH N R</t>
+  </si>
+  <si>
+    <t>ABHIJITH C S</t>
+  </si>
+  <si>
+    <t>ASHA S</t>
+  </si>
+  <si>
+    <t>ATHUL P S</t>
+  </si>
+  <si>
+    <t>JOSMAL MATHEW</t>
+  </si>
+  <si>
+    <t>MRIDULA J NAIR</t>
+  </si>
+  <si>
+    <t>NAVAKRISHNAN M R</t>
+  </si>
+  <si>
+    <t>NITHIN C T</t>
+  </si>
+  <si>
+    <t>SILPA SOMAN</t>
+  </si>
+  <si>
+    <t>SISIRA K M</t>
+  </si>
+  <si>
+    <t>SREEDEV J</t>
+  </si>
+  <si>
+    <t>SREEJITH V</t>
+  </si>
+  <si>
+    <t>VISHNU C</t>
+  </si>
+  <si>
+    <t>VIVEK NAIR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,13 +704,25 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -581,17 +753,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,7 +1058,7 @@
   <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,7 +2096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1212BC1A-6F2C-41B5-90C5-2A77E745D6D8}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1933,318 +2115,773 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>12013001</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>12013002</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>12013003</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>12013004</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>12013005</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>12013006</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>12013008</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>12013007</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>12013009</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>12013010</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>12013011</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12013022</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>12013012</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>12013014</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>12013015</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>12013016</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>12013017</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>12013018</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>12013019</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>12013020</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>12013021</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>12123024</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>12123025</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>12123026</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>12123027</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>12123028</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>12123029</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>12123030</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>12123031</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>12123032</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>12123033</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>12123034</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>12123035</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>12123036</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>12123038</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>12123039</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>12123040</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>12123041</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>12123042</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE94710-5F55-4209-991F-C60DF91A7375}">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>12014001</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>12014002</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>12014003</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>12014004</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>12014005</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>12014006</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>12014007</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>12014008</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>12014009</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>12014010</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>12014011</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12014012</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12014013</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>12014014</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>12014015</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>12014016</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>12014017</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>12014018</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>12014019</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>12014020</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>12014021</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>12014022</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>12014023</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>12014024</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>12014025</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>12014026</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>12014027</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>12014028</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>12014029</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>12014030</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>12014031</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>12014032</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>12014033</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>12014035</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>12014037</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>12014038</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>12014039</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>12014040</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>12014041</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>12014042</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>12124043</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>12124044</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>12124045</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>12124046</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>12124047</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>12124048</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>12124049</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>12124050</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>12124051</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>12124052</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>12124053</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>12124054</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>12124055</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Student Data/ThirdYearStudents.xlsx
+++ b/Student Data/ThirdYearStudents.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\Student Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3156CCE3-0883-479A-9120-E5EFADDA4E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC86898-6321-4CEC-A557-FAB88089718A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csa" sheetId="1" r:id="rId1"/>
     <sheet name="csb" sheetId="2" r:id="rId2"/>
-    <sheet name="eee" sheetId="3" r:id="rId3"/>
-    <sheet name="ece" sheetId="4" r:id="rId4"/>
+    <sheet name="ee" sheetId="3" r:id="rId3"/>
+    <sheet name="ec" sheetId="4" r:id="rId4"/>
+    <sheet name="ce" sheetId="5" r:id="rId5"/>
+    <sheet name="mea" sheetId="6" r:id="rId6"/>
+    <sheet name="meb" sheetId="7" r:id="rId7"/>
+    <sheet name="mr" sheetId="8" r:id="rId8"/>
+    <sheet name="ad" sheetId="9" r:id="rId9"/>
+    <sheet name="rb" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="471">
   <si>
     <t>rollnum</t>
   </si>
@@ -679,6 +685,768 @@
   </si>
   <si>
     <t>VIVEK NAIR</t>
+  </si>
+  <si>
+    <t>AJAY P ANTONY</t>
+  </si>
+  <si>
+    <t>AKHITHA V S</t>
+  </si>
+  <si>
+    <t>AKSHAYA VISWANATHAN</t>
+  </si>
+  <si>
+    <t>ALVIN JOHNY</t>
+  </si>
+  <si>
+    <t>ALVIN LALU</t>
+  </si>
+  <si>
+    <t>ANGELA THERESSA CHIYEZHAN</t>
+  </si>
+  <si>
+    <t>ANSILA</t>
+  </si>
+  <si>
+    <t>ARYA BABU</t>
+  </si>
+  <si>
+    <t>ASWIN P C</t>
+  </si>
+  <si>
+    <t>CHRIS SEJO</t>
+  </si>
+  <si>
+    <t>CHRISTOPHER T EDMOND</t>
+  </si>
+  <si>
+    <t>IBRAHIM BADHUSHA K.H</t>
+  </si>
+  <si>
+    <t>JANET GEORGE B</t>
+  </si>
+  <si>
+    <t>JIFFIN MAJO ELUVATHINGAL</t>
+  </si>
+  <si>
+    <t>JISNI K T</t>
+  </si>
+  <si>
+    <t>K G ANANDH</t>
+  </si>
+  <si>
+    <t>KARTHIK K S</t>
+  </si>
+  <si>
+    <t>LIVIN JOY</t>
+  </si>
+  <si>
+    <t>MARIYA JOSHY</t>
+  </si>
+  <si>
+    <t>MOHAMMED HASHIM MUHAMMED SAGEER</t>
+  </si>
+  <si>
+    <t>MUHAMMED ABID T K</t>
+  </si>
+  <si>
+    <t>PAVITHRA P V</t>
+  </si>
+  <si>
+    <t>SEETHAL ANNA KORULLA</t>
+  </si>
+  <si>
+    <t>SHUHAIB A S</t>
+  </si>
+  <si>
+    <t>SHUMAIL A</t>
+  </si>
+  <si>
+    <t>SOFIA GEORGE</t>
+  </si>
+  <si>
+    <t>SUBINA S S</t>
+  </si>
+  <si>
+    <t>THEJASREE V B</t>
+  </si>
+  <si>
+    <t>VAISHNAV M</t>
+  </si>
+  <si>
+    <t>VISHNURAJ KR</t>
+  </si>
+  <si>
+    <t>VIVEK K A</t>
+  </si>
+  <si>
+    <t>VYSHNAVI K P</t>
+  </si>
+  <si>
+    <t>YADHUNANDAN M B</t>
+  </si>
+  <si>
+    <t>AJITH C S</t>
+  </si>
+  <si>
+    <t>AKHILESH KUMAR K K</t>
+  </si>
+  <si>
+    <t>AMRITHA G S</t>
+  </si>
+  <si>
+    <t>ANAGHA T DEV</t>
+  </si>
+  <si>
+    <t>ANJALI M M</t>
+  </si>
+  <si>
+    <t>ANSON JOJU</t>
+  </si>
+  <si>
+    <t>ANUSREE N R</t>
+  </si>
+  <si>
+    <t>ARYA MANOJ P</t>
+  </si>
+  <si>
+    <t>ASWANTH ASOKAN</t>
+  </si>
+  <si>
+    <t>BHADRAK J KRISHNA</t>
+  </si>
+  <si>
+    <t>FARSANA C Y</t>
+  </si>
+  <si>
+    <t>GOKUL P NANDHANAN</t>
+  </si>
+  <si>
+    <t>GOPIKA P</t>
+  </si>
+  <si>
+    <t>HRIDYA T P</t>
+  </si>
+  <si>
+    <t>KAMAL JYOTHI NATH</t>
+  </si>
+  <si>
+    <t>MANU E M</t>
+  </si>
+  <si>
+    <t>MEGHANA N S</t>
+  </si>
+  <si>
+    <t>RICHARD BABU</t>
+  </si>
+  <si>
+    <t>RONALD JOSE</t>
+  </si>
+  <si>
+    <t>SAM VARGHESE</t>
+  </si>
+  <si>
+    <t>SANGEETHA T R</t>
+  </si>
+  <si>
+    <t>SIDHIL S</t>
+  </si>
+  <si>
+    <t>SINTO SIMON O</t>
+  </si>
+  <si>
+    <t>VISHNU VIJAYAN</t>
+  </si>
+  <si>
+    <t>ABHINAV KRISHNA P</t>
+  </si>
+  <si>
+    <t>ABHINAV KRISHNA UN</t>
+  </si>
+  <si>
+    <t>ADITH PRADEEP</t>
+  </si>
+  <si>
+    <t>AJEL LORANCE</t>
+  </si>
+  <si>
+    <t>AKHIL K</t>
+  </si>
+  <si>
+    <t>AKSHAY V</t>
+  </si>
+  <si>
+    <t>ALAN WILLIAMS</t>
+  </si>
+  <si>
+    <t>ALFIN JOJI</t>
+  </si>
+  <si>
+    <t>ALOK SUNILKUMAR NAIR</t>
+  </si>
+  <si>
+    <t>AMAL PAULSON</t>
+  </si>
+  <si>
+    <t>ANANDAKRISHNAN C S</t>
+  </si>
+  <si>
+    <t>ANDSON JOSEPH</t>
+  </si>
+  <si>
+    <t>ANNLO PAUL</t>
+  </si>
+  <si>
+    <t>ARUL DAS U A</t>
+  </si>
+  <si>
+    <t>ASWIN A S</t>
+  </si>
+  <si>
+    <t>ATHUL VINCENT C V</t>
+  </si>
+  <si>
+    <t>DOBIN V STEEPHEN</t>
+  </si>
+  <si>
+    <t>EDWINANTO</t>
+  </si>
+  <si>
+    <t>EDWIN ELDHO</t>
+  </si>
+  <si>
+    <t>GAUTHAM KRISHNA M V</t>
+  </si>
+  <si>
+    <t>GODSON P P</t>
+  </si>
+  <si>
+    <t>GOKUL R NAIR</t>
+  </si>
+  <si>
+    <t>HARIKRISHNAN N</t>
+  </si>
+  <si>
+    <t>HARIMADHAV M</t>
+  </si>
+  <si>
+    <t>HILAL K H</t>
+  </si>
+  <si>
+    <t>IHSAN AHAMED</t>
+  </si>
+  <si>
+    <t>JERIN C SHAJI</t>
+  </si>
+  <si>
+    <t>JEWEL JOHNSON</t>
+  </si>
+  <si>
+    <t>JOBIN C J</t>
+  </si>
+  <si>
+    <t>JOEL JOFFY</t>
+  </si>
+  <si>
+    <t>JOE PAUL</t>
+  </si>
+  <si>
+    <t>JULSHITH T P</t>
+  </si>
+  <si>
+    <t>KISHOR V GOPAL</t>
+  </si>
+  <si>
+    <t>KRISHNADEV C</t>
+  </si>
+  <si>
+    <t>MARIYA SHOBBY</t>
+  </si>
+  <si>
+    <t>M DEVESWARAN NAMBOODIRIPAD</t>
+  </si>
+  <si>
+    <t>MELVIN MATHEW</t>
+  </si>
+  <si>
+    <t>MELWIN TONY</t>
+  </si>
+  <si>
+    <t>MOHAMMED HISHAM HASHIM</t>
+  </si>
+  <si>
+    <t>NIKHIL SUNIL</t>
+  </si>
+  <si>
+    <t>NOEL C JOJU</t>
+  </si>
+  <si>
+    <t>RANJITH P H</t>
+  </si>
+  <si>
+    <t>PRANAV P UNNI</t>
+  </si>
+  <si>
+    <t>ROJAN T P</t>
+  </si>
+  <si>
+    <t>SAJITH SEBY</t>
+  </si>
+  <si>
+    <t>SANDEEP C P</t>
+  </si>
+  <si>
+    <t>SANKEERTHANA P</t>
+  </si>
+  <si>
+    <t>SAYOOJ C S</t>
+  </si>
+  <si>
+    <t>SEPHAN PAUL JOPHY</t>
+  </si>
+  <si>
+    <t>SHARUN P</t>
+  </si>
+  <si>
+    <t>SHONE T S</t>
+  </si>
+  <si>
+    <t>SHON SHIBY</t>
+  </si>
+  <si>
+    <t>SIDHARTH P S</t>
+  </si>
+  <si>
+    <t>SIDHARTH R</t>
+  </si>
+  <si>
+    <t>SIDHARTH S PRASAD</t>
+  </si>
+  <si>
+    <t>SREERAG K R</t>
+  </si>
+  <si>
+    <t>SREERAG V S</t>
+  </si>
+  <si>
+    <t>TRAVIS SHIJU</t>
+  </si>
+  <si>
+    <t>VARUN R</t>
+  </si>
+  <si>
+    <t>VIPIN E</t>
+  </si>
+  <si>
+    <t>VISHNU K</t>
+  </si>
+  <si>
+    <t>ABDUL NASIC P N</t>
+  </si>
+  <si>
+    <t>ADARSH DIVAKARAN</t>
+  </si>
+  <si>
+    <t>ASWIN S PAVITHRAN</t>
+  </si>
+  <si>
+    <t>FAIZAL K S</t>
+  </si>
+  <si>
+    <t>HEAVEN SAJU</t>
+  </si>
+  <si>
+    <t>INDRAJITH PADMAKUMAR</t>
+  </si>
+  <si>
+    <t>JOEL C KARIAMPALLY</t>
+  </si>
+  <si>
+    <t>LIJO JOY</t>
+  </si>
+  <si>
+    <t>MANUKRISHNA A S</t>
+  </si>
+  <si>
+    <t>NANDHAGOPAN T R</t>
+  </si>
+  <si>
+    <t>NIKHIL P BOBY</t>
+  </si>
+  <si>
+    <t>RETHIN P R</t>
+  </si>
+  <si>
+    <t>RITHURAJ K SANTHOSH</t>
+  </si>
+  <si>
+    <t>SANJAY M S</t>
+  </si>
+  <si>
+    <t>STALIN DAVIS</t>
+  </si>
+  <si>
+    <t>STEVO RAPHEL</t>
+  </si>
+  <si>
+    <t>YADHUKRISHNA E R</t>
+  </si>
+  <si>
+    <t>AADITH RAJESH</t>
+  </si>
+  <si>
+    <t>ABEL BIJU</t>
+  </si>
+  <si>
+    <t>ABHIGITH RAJESH</t>
+  </si>
+  <si>
+    <t>ABHINANDU G L</t>
+  </si>
+  <si>
+    <t>AKHIL P S</t>
+  </si>
+  <si>
+    <t>AKSHAY SIVAN</t>
+  </si>
+  <si>
+    <t>AKSHIK PANICKER</t>
+  </si>
+  <si>
+    <t>ALBIN ANTONY</t>
+  </si>
+  <si>
+    <t>ANANTHAKRISHNA P S</t>
+  </si>
+  <si>
+    <t>ARAVIND B</t>
+  </si>
+  <si>
+    <t>ASHID RAHMAN P P</t>
+  </si>
+  <si>
+    <t>BILWIN T JAMES</t>
+  </si>
+  <si>
+    <t>CHERU ASHISH JOY</t>
+  </si>
+  <si>
+    <t>DANISH DANTY</t>
+  </si>
+  <si>
+    <t>DOMINIC SAJI</t>
+  </si>
+  <si>
+    <t>ED PEETER</t>
+  </si>
+  <si>
+    <t>EDWIN A J</t>
+  </si>
+  <si>
+    <t>EDWIN JEMI RAJAN</t>
+  </si>
+  <si>
+    <t>GAUTHAM J</t>
+  </si>
+  <si>
+    <t>GEOVIN GEORGE</t>
+  </si>
+  <si>
+    <t>GODWIN BABU</t>
+  </si>
+  <si>
+    <t>HARIKRISHNAN H</t>
+  </si>
+  <si>
+    <t>JISHNU P MOHAN</t>
+  </si>
+  <si>
+    <t>JOHNS JOSE</t>
+  </si>
+  <si>
+    <t>K.B MANAV</t>
+  </si>
+  <si>
+    <t>KELVIN BENNY</t>
+  </si>
+  <si>
+    <t>LIVIN K LAWRANCE</t>
+  </si>
+  <si>
+    <t>MEBIN TOM</t>
+  </si>
+  <si>
+    <t>MILAN ROY C</t>
+  </si>
+  <si>
+    <t>MOHAMAD ADNAN</t>
+  </si>
+  <si>
+    <t>M SARATH</t>
+  </si>
+  <si>
+    <t>MUHAMMED SAHAL</t>
+  </si>
+  <si>
+    <t>NANDHAKISHOR A</t>
+  </si>
+  <si>
+    <t>NAVEEN ANTONY</t>
+  </si>
+  <si>
+    <t>NAVEEN THARAKAN</t>
+  </si>
+  <si>
+    <t>NIVA SAJU</t>
+  </si>
+  <si>
+    <t>PAUL JOHNY VARICKANICKAL</t>
+  </si>
+  <si>
+    <t>RICHALD A R</t>
+  </si>
+  <si>
+    <t>ROSHAN T J</t>
+  </si>
+  <si>
+    <t>SANGEETH SANTHOSH KUMAR</t>
+  </si>
+  <si>
+    <t>SANJU M</t>
+  </si>
+  <si>
+    <t>SHARON S KAVALAKATT</t>
+  </si>
+  <si>
+    <t>SKARIA MANOJ</t>
+  </si>
+  <si>
+    <t>SONU GEORGE SAJU</t>
+  </si>
+  <si>
+    <t>VARGHESE C B</t>
+  </si>
+  <si>
+    <t>VIVIN VINSON</t>
+  </si>
+  <si>
+    <t>ASWIN C P</t>
+  </si>
+  <si>
+    <t>JAYAKRISHNAN V</t>
+  </si>
+  <si>
+    <t>MUHSIN RAZIEY</t>
+  </si>
+  <si>
+    <t>VAISAKH S</t>
+  </si>
+  <si>
+    <t>ADITHYAN M P</t>
+  </si>
+  <si>
+    <t>ADITYAN M SUNIL</t>
+  </si>
+  <si>
+    <t>AGNAL MENACHERY</t>
+  </si>
+  <si>
+    <t>AKARSH K DAS</t>
+  </si>
+  <si>
+    <t>AKASH KOLLADIKKEL</t>
+  </si>
+  <si>
+    <t>AKASH V A</t>
+  </si>
+  <si>
+    <t>AKSHAY KRISHNA T D</t>
+  </si>
+  <si>
+    <t>ALEENA SANTHOSH</t>
+  </si>
+  <si>
+    <t>ALIYA SIRAJ MANAKKATTU</t>
+  </si>
+  <si>
+    <t>ALPHIN C J</t>
+  </si>
+  <si>
+    <t>AMAL VARGHESE</t>
+  </si>
+  <si>
+    <t>ANAND SANLO</t>
+  </si>
+  <si>
+    <t>ANGEL MARY SHIBU</t>
+  </si>
+  <si>
+    <t>ANJANA P</t>
+  </si>
+  <si>
+    <t>ARDHRA M A</t>
+  </si>
+  <si>
+    <t>ARUNIMA ANIL</t>
+  </si>
+  <si>
+    <t>ASWATHI KRISHNA P T</t>
+  </si>
+  <si>
+    <t>ATHVIK S</t>
+  </si>
+  <si>
+    <t>AVANTHIKA P U</t>
+  </si>
+  <si>
+    <t>BIMAL ROY</t>
+  </si>
+  <si>
+    <t>CHANDINI T S</t>
+  </si>
+  <si>
+    <t>DIVYA PILLAI</t>
+  </si>
+  <si>
+    <t>EBIN C ZEBY</t>
+  </si>
+  <si>
+    <t>FEMI ROSH</t>
+  </si>
+  <si>
+    <t>JACOB JOHNSON</t>
+  </si>
+  <si>
+    <t>JITHIN BABU</t>
+  </si>
+  <si>
+    <t>JOSTEN S CHEERAN</t>
+  </si>
+  <si>
+    <t>MADHAV M</t>
+  </si>
+  <si>
+    <t>MEGHA S</t>
+  </si>
+  <si>
+    <t>MELVIN JAMES K</t>
+  </si>
+  <si>
+    <t>MISHAL HABEEB</t>
+  </si>
+  <si>
+    <t>MOHAMMED AJMAL P N</t>
+  </si>
+  <si>
+    <t>MOHAMMED SHYJIL</t>
+  </si>
+  <si>
+    <t>NANDA S</t>
+  </si>
+  <si>
+    <t>NIHARIKA JAYAKRISHNAN NAMBISSAN</t>
+  </si>
+  <si>
+    <t>NIKHITHA JOY</t>
+  </si>
+  <si>
+    <t>NIVYA K V</t>
+  </si>
+  <si>
+    <t>PRADUL O P</t>
+  </si>
+  <si>
+    <t>PRATHYUSH N M</t>
+  </si>
+  <si>
+    <t>PRATHYUSH P</t>
+  </si>
+  <si>
+    <t>RAHUL SREENIVASAN P</t>
+  </si>
+  <si>
+    <t>RANJINI K</t>
+  </si>
+  <si>
+    <t>RINCE SABU E</t>
+  </si>
+  <si>
+    <t>SANDRA C M</t>
+  </si>
+  <si>
+    <t>SANDRA M</t>
+  </si>
+  <si>
+    <t>SHREYAS P VIJAY</t>
+  </si>
+  <si>
+    <t>SREEHARI SREEJAY O P</t>
+  </si>
+  <si>
+    <t>SREEKRISHNAN K P</t>
+  </si>
+  <si>
+    <t>SREELAKSHMI SUDHEER</t>
+  </si>
+  <si>
+    <t>SRINESH N T</t>
+  </si>
+  <si>
+    <t>SULEKHA P S</t>
+  </si>
+  <si>
+    <t>VARSHA I K</t>
+  </si>
+  <si>
+    <t>VINAYA A</t>
+  </si>
+  <si>
+    <t>VIVEK SANKAR P V</t>
+  </si>
+  <si>
+    <t>ABHIJITH V S</t>
+  </si>
+  <si>
+    <t>ALVIN ANTONY JOMON</t>
+  </si>
+  <si>
+    <t>AMEER ALIKHAN</t>
+  </si>
+  <si>
+    <t>ANGELO RISON K</t>
+  </si>
+  <si>
+    <t>ASWIN K D</t>
+  </si>
+  <si>
+    <t>ASWIN P RATHNAN</t>
+  </si>
+  <si>
+    <t>BITO K B</t>
+  </si>
+  <si>
+    <t>DEVADATH P R</t>
+  </si>
+  <si>
+    <t>ELVIN RAPHEAL</t>
+  </si>
+  <si>
+    <t>JOSHUA JOSE</t>
+  </si>
+  <si>
+    <t>NAVANEETH NALESH C T</t>
+  </si>
+  <si>
+    <t>POWRNAMI P</t>
+  </si>
+  <si>
+    <t>PRASANTH K P</t>
+  </si>
+  <si>
+    <t>PRAVEENA M P</t>
+  </si>
+  <si>
+    <t>YADU PRASAD N</t>
   </si>
 </sst>
 </file>
@@ -711,7 +1479,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,8 +1492,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -748,12 +1522,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -761,19 +1565,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,7 +1873,7 @@
   <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,6 +2389,161 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3ADB9F-08F6-4B81-8133-0BDF75D1DF8F}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>12018001</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>12018002</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>12018003</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>12018004</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>12018005</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>12018006</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>12018007</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>12018008</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>12018009</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>12018010</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>12018011</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12018012</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12018013</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>12018014</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>12018015</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>12018017</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2097,7 +3067,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,20 +3402,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE94710-5F55-4209-991F-C60DF91A7375}">
-  <dimension ref="A1:B55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6D880F-B100-4CA2-95DD-E3C553CB8D6B}">
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2453,435 +3423,2489 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>12014001</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>12014002</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>12014003</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>12014004</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>12014005</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>12014006</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>12014007</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>12014008</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>12014009</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>12014010</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>12014011</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>12014012</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="14" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>12014013</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>12014014</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>12014015</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>12014016</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>12014017</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>12014018</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="20" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>12014019</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>12014020</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    <row r="22" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>12014021</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    <row r="23" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>12014022</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
         <v>12014023</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>12014024</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    <row r="26" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
         <v>12014025</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    <row r="27" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
         <v>12014026</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+    <row r="28" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
         <v>12014027</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
         <v>12014028</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="30" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
         <v>12014029</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
         <v>12014030</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+    <row r="32" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
         <v>12014031</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
         <v>12014032</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+    <row r="34" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <v>12014033</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
         <v>12014035</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
         <v>12014037</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
         <v>12014038</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+    <row r="38" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
         <v>12014039</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
         <v>12014040</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+    <row r="40" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
         <v>12014041</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
         <v>12014042</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
         <v>12124043</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
         <v>12124044</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
         <v>12124045</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+    <row r="45" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
         <v>12124046</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
         <v>12124047</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+    <row r="47" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
         <v>12124048</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
         <v>12124049</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
         <v>12124050</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
         <v>12124051</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
         <v>12124052</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
         <v>12124053</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
         <v>12124054</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
         <v>12124055</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBBC0E7-3FF5-473B-AA0F-49C098D77C1B}">
+  <dimension ref="A1:B58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>12011001</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>12011003</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>12011004</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>12011005</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>12011006</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>12011007</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>12011008</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>12011009</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>12011010</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>12011011</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>12011012</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12011013</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12011014</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>12011015</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>12011016</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>12011017</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>12011018</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>12011019</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>12011020</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>12011021</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>12011022</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>12011023</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>12011024</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>12011025</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>12011026</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>12011027</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>12011028</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>12011029</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>12011030</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>12011031</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>12011032</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>12011033</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>12011034</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>12121035</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>12121036</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>12121037</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>12121038</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>12121039</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>12121040</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>12121041</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>12121042</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>12121043</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>12121044</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>12121045</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>12121046</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>12121047</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>12121048</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>12121049</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>12121050</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>12121051</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>12121052</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>12121053</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>12121054</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>12121055</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>12121056</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>12121057</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>12121058</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AC0874-48BF-4627-917C-8F42B5FE15AC}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>12015001</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>12015002</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>12015003</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>12015004</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>12015005</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>12015006</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>12015007</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>12015008</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>12015009</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>12015010</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>12015011</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12015012</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12015013</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>12015014</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>12015015</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>12015016</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>12015018</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>12015020</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>12015019</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>12015021</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>12015022</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>12015023</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>12015024</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>12015025</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>12015026</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>12015027</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>12015028</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>12015029</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>12015030</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>12015032</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>12015031</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>12015033</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>12015034</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>12015035</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>12015037</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>12015036</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>12015038</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>12015039</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>12015040</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>12015041</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF0355D-81C7-4729-B240-D456AAB51363}">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>12015042</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>12015044</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>12015043</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>12015046</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>12015047</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>12015048</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>12015050</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>12015051</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>12015052</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>12015053</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>12015055</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12015054</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12015056</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>12015057</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>12015058</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>12015060</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>12015061</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>12015062</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>12015063</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>12015064</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>12015065</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>12125066</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>12125067</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>12125068</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>12125069</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>12125070</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>12125071</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>12125072</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>12125073</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>12125074</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>12125075</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>12125076</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>12125077</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>12125078</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>12125079</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>12125080</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>12125081</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>12125082</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B07472-59A7-4171-9F0F-C7985AD6442D}">
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>12016001</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>12016002</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>12016003</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>12016004</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>12016005</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>12016006</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>12016007</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>12016008</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>12016009</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>12016010</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>12016011</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12016012</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12016013</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>12016014</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>12016015</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>12016016</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>12016017</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>12016018</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>12016019</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>12016020</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>12016021</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>12016022</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>12016023</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>12016024</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>12016025</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>12016026</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>12016027</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>12016028</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>12016030</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>12016031</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>12016032</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>12016029</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>12016033</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>12016034</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>12016035</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>12016036</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>12016037</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>12016038</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>12016039</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>12016040</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>12016041</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>12016042</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>12016047</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>12016043</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>12016044</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>12016045</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>12016046</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>12126048</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>12126049</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>12126050</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>12126051</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C2E852-5AF2-428D-80EF-6B7B9D3ECD80}">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>12017001</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>12017002</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>12017003</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>12017004</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>12017005</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>12017006</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>12017007</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>12017008</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>12017009</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>12017010</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>12017011</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12017012</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12017013</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>12017014</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>12017015</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>12017016</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>12017017</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>12017018</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>12017019</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>12017020</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>12017021</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>12017022</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>12017023</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>12017024</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>12017025</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>12017026</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>12017027</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>12017028</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>12017029</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>12017030</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>12017031</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>12017032</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>12017033</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>12017034</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>12017035</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>12017036</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>12017037</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>12017038</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>12017039</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>12017040</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>12017041</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>12017042</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>12017043</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>12017044</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>12017045</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>12017046</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>12017047</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>12017048</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>12017049</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>12017050</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>12017051</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>12017052</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>12017053</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>12017054</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Student Data/ThirdYearStudents.xlsx
+++ b/Student Data/ThirdYearStudents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\Student Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC86898-6321-4CEC-A557-FAB88089718A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E77F799-158C-42F4-86DA-0196087DC0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
